--- a/Instances/SuperSmallIntance_Normal.xlsx
+++ b/Instances/SuperSmallIntance_Normal.xlsx
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>

--- a/Instances/SuperSmallIntance_Normal.xlsx
+++ b/Instances/SuperSmallIntance_Normal.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCWam\DOCUME~1\MobaXterm\slash\RemoteFiles\394314_20_102\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Generic" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="2" r:id="rId2"/>
+    <sheet name="Productdata" sheetId="3" r:id="rId3"/>
+    <sheet name="ForecastedAverageDemand" sheetId="4" r:id="rId4"/>
+    <sheet name="ForcastedStandardDeviation" sheetId="5" r:id="rId5"/>
+    <sheet name="Capacity" sheetId="6" r:id="rId6"/>
+    <sheet name="ProcessingTime" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -82,23 +87,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,26 +120,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,25 +444,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,39 +466,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -486,34 +506,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -521,48 +535,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -588,84 +596,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -673,92 +675,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -766,162 +762,150 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Instances/SuperSmallIntance_Normal.xlsx
+++ b/Instances/SuperSmallIntance_Normal.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCWam\DOCUME~1\MobaXterm\slash\RemoteFiles\394314_20_102\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Generic" sheetId="1" r:id="rId1"/>
-    <sheet name="Requirement" sheetId="2" r:id="rId2"/>
-    <sheet name="Productdata" sheetId="3" r:id="rId3"/>
-    <sheet name="ForecastedAverageDemand" sheetId="4" r:id="rId4"/>
-    <sheet name="ForcastedStandardDeviation" sheetId="5" r:id="rId5"/>
-    <sheet name="Capacity" sheetId="6" r:id="rId6"/>
-    <sheet name="ProcessingTime" sheetId="7" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -87,25 +82,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,43 +113,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -444,21 +420,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,39 +446,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -506,28 +486,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -535,42 +521,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,78 +588,84 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,86 +673,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -762,150 +766,162 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Instances/SuperSmallIntance_Normal.xlsx
+++ b/Instances/SuperSmallIntance_Normal.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCWam\DOCUME~1\MobaXterm\slash\RemoteFiles\329834_4_5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Generic" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="2" r:id="rId2"/>
+    <sheet name="Productdata" sheetId="3" r:id="rId3"/>
+    <sheet name="ForecastedAverageDemand" sheetId="4" r:id="rId4"/>
+    <sheet name="ForcastedStandardDeviation" sheetId="5" r:id="rId5"/>
+    <sheet name="Capacity" sheetId="6" r:id="rId6"/>
+    <sheet name="ProcessingTime" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -85,23 +90,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,26 +122,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,25 +446,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,39 +468,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,42 +508,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -532,48 +545,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -599,84 +606,78 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -684,125 +685,119 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -810,195 +805,183 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Instances/SuperSmallIntance_Normal.xlsx
+++ b/Instances/SuperSmallIntance_Normal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCWam\DOCUME~1\MobaXterm\slash\RemoteFiles\329834_4_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCWam\DOCUME~1\MobaXterm\slash\RemoteFiles\5508188_8_99\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="6360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="6360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -576,7 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
